--- a/output/Nepal_formatted.xlsx
+++ b/output/Nepal_formatted.xlsx
@@ -13822,7 +13822,7 @@
       <c r="AH109"/>
       <c r="AI109"/>
       <c r="AJ109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK109" t="n">
         <v>128264</v>
